--- a/085ET-GIM/map_policy/fcc_policy.xlsx
+++ b/085ET-GIM/map_policy/fcc_policy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Crawler4Caida\085ET-GIM\map_policy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E1ECEF-3309-484D-ABE4-5F9648CBA01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E765294-F53C-4426-93A4-3736F260C0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-27675" yWindow="1125" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fcc_policy" sheetId="2" r:id="rId1"/>
@@ -6842,36 +6842,51 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6907,17 +6922,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{496D0144-0FA7-4B5F-BB87-3E340472CCA2}" name="fcc_policy" displayName="fcc_policy" ref="A1:H501" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{496D0144-0FA7-4B5F-BB87-3E340472CCA2}" name="fcc_policy" displayName="fcc_policy" ref="A1:H501" tableType="queryTable" totalsRowShown="0" dataDxfId="0">
   <autoFilter ref="A1:H501" xr:uid="{496D0144-0FA7-4B5F-BB87-3E340472CCA2}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B14F0A8A-7A6E-409B-BE2D-98E58D6E1BA6}" uniqueName="1" name="发布时间" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{FB586540-37B8-4524-B640-183232CBB623}" uniqueName="2" name="标题" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{96B1FAC9-D833-4FF5-BDB6-CB383C3ED3E7}" uniqueName="3" name="标题全称" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{8680B6B8-40A7-4594-BE5F-6069FC3109B9}" uniqueName="4" name="政策类别" queryTableFieldId="4" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{C33D299B-F7BE-455E-88C8-5251ECE1BD0F}" uniqueName="5" name="部门" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{166EC4CE-5FFF-4033-ADCC-538A6D9AF5CE}" uniqueName="6" name="描述" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{CC7050E5-8D12-44AF-9A83-BE24C9D2CA34}" uniqueName="7" name="政策文件" queryTableFieldId="7" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{CC8912EE-17A1-4C29-9857-4E0DA9659F51}" uniqueName="8" name="URL" queryTableFieldId="8" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B14F0A8A-7A6E-409B-BE2D-98E58D6E1BA6}" uniqueName="1" name="发布时间" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{FB586540-37B8-4524-B640-183232CBB623}" uniqueName="2" name="标题" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{96B1FAC9-D833-4FF5-BDB6-CB383C3ED3E7}" uniqueName="3" name="标题全称" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{8680B6B8-40A7-4594-BE5F-6069FC3109B9}" uniqueName="4" name="政策类别" queryTableFieldId="4" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{C33D299B-F7BE-455E-88C8-5251ECE1BD0F}" uniqueName="5" name="部门" queryTableFieldId="5" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{166EC4CE-5FFF-4033-ADCC-538A6D9AF5CE}" uniqueName="6" name="描述" queryTableFieldId="6" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{CC7050E5-8D12-44AF-9A83-BE24C9D2CA34}" uniqueName="7" name="政策文件" queryTableFieldId="7" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{CC8912EE-17A1-4C29-9857-4E0DA9659F51}" uniqueName="8" name="URL" queryTableFieldId="8" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7188,19 +7203,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B99DDF-295E-4932-8B18-0E24145C93C6}">
   <dimension ref="A1:H501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="65.375" customWidth="1"/>
-    <col min="3" max="3" width="81" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="81" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="90.75" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="43.125" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="29.25" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -7255,7 +7271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44781</v>
       </c>
@@ -7281,7 +7297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44781</v>
       </c>
@@ -7307,7 +7323,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44781</v>
       </c>
@@ -7333,7 +7349,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44778</v>
       </c>
@@ -7359,7 +7375,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44778</v>
       </c>
@@ -7385,7 +7401,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44777</v>
       </c>
@@ -7411,7 +7427,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44776</v>
       </c>
@@ -7437,7 +7453,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44776</v>
       </c>
@@ -7463,7 +7479,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44775</v>
       </c>
@@ -7489,7 +7505,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44775</v>
       </c>
@@ -7515,7 +7531,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44774</v>
       </c>
@@ -7541,7 +7557,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44774</v>
       </c>
@@ -7567,7 +7583,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44774</v>
       </c>
@@ -7593,7 +7609,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44771</v>
       </c>
@@ -7619,7 +7635,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44771</v>
       </c>
@@ -7645,7 +7661,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44770</v>
       </c>
@@ -7671,7 +7687,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44770</v>
       </c>
@@ -7697,7 +7713,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44770</v>
       </c>
@@ -7723,7 +7739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44769</v>
       </c>
@@ -7749,7 +7765,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44769</v>
       </c>
@@ -7775,7 +7791,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44764</v>
       </c>
@@ -7801,7 +7817,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44764</v>
       </c>
@@ -7827,7 +7843,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44764</v>
       </c>
@@ -7853,7 +7869,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44763</v>
       </c>
@@ -7879,7 +7895,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44762</v>
       </c>
@@ -7905,7 +7921,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44761</v>
       </c>
@@ -7931,7 +7947,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44761</v>
       </c>
@@ -7957,7 +7973,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44760</v>
       </c>
@@ -7983,7 +7999,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44760</v>
       </c>
@@ -8009,7 +8025,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44760</v>
       </c>
@@ -8035,7 +8051,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44760</v>
       </c>
@@ -8061,7 +8077,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44760</v>
       </c>
@@ -8087,7 +8103,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44757</v>
       </c>
@@ -8113,7 +8129,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44757</v>
       </c>
@@ -8139,7 +8155,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44757</v>
       </c>
@@ -8165,7 +8181,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44757</v>
       </c>
@@ -8191,7 +8207,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44757</v>
       </c>
@@ -8217,7 +8233,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44756</v>
       </c>
@@ -8243,7 +8259,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44756</v>
       </c>
@@ -8269,7 +8285,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44755</v>
       </c>
@@ -8295,7 +8311,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44755</v>
       </c>
@@ -8321,7 +8337,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44755</v>
       </c>
@@ -8347,7 +8363,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44754</v>
       </c>
@@ -8373,7 +8389,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44753</v>
       </c>
@@ -8399,7 +8415,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44753</v>
       </c>
@@ -8425,7 +8441,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44753</v>
       </c>
@@ -8451,7 +8467,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44750</v>
       </c>
@@ -8477,7 +8493,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44749</v>
       </c>
@@ -8503,7 +8519,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44749</v>
       </c>
@@ -8529,7 +8545,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44748</v>
       </c>
@@ -8555,7 +8571,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44743</v>
       </c>
@@ -8581,7 +8597,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44743</v>
       </c>
@@ -8607,7 +8623,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44743</v>
       </c>
@@ -8633,7 +8649,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44742</v>
       </c>
@@ -8659,7 +8675,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44742</v>
       </c>
@@ -8685,7 +8701,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44742</v>
       </c>
@@ -8711,7 +8727,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
@@ -8737,7 +8753,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44742</v>
       </c>
@@ -8763,7 +8779,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44742</v>
       </c>
@@ -8789,7 +8805,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44739</v>
       </c>
@@ -8815,7 +8831,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44736</v>
       </c>
@@ -8841,7 +8857,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>44735</v>
       </c>
@@ -8867,7 +8883,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44735</v>
       </c>
@@ -8893,7 +8909,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44734</v>
       </c>
@@ -8919,7 +8935,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44727</v>
       </c>
@@ -8945,7 +8961,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>44727</v>
       </c>
@@ -8971,7 +8987,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>44727</v>
       </c>
@@ -8997,7 +9013,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>44727</v>
       </c>
@@ -9023,7 +9039,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>44727</v>
       </c>
@@ -9049,7 +9065,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>44725</v>
       </c>
@@ -9075,7 +9091,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>44722</v>
       </c>
@@ -9101,7 +9117,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>44722</v>
       </c>
@@ -9127,7 +9143,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>44721</v>
       </c>
@@ -9153,7 +9169,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>44721</v>
       </c>
@@ -9179,7 +9195,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>44721</v>
       </c>
@@ -9205,7 +9221,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>44720</v>
       </c>
@@ -9231,7 +9247,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>44720</v>
       </c>
@@ -9257,7 +9273,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>44720</v>
       </c>
@@ -9283,7 +9299,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>44720</v>
       </c>
@@ -9309,7 +9325,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>44720</v>
       </c>
@@ -9335,7 +9351,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>44720</v>
       </c>
@@ -9361,7 +9377,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>44719</v>
       </c>
@@ -9387,7 +9403,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>44719</v>
       </c>
@@ -9413,7 +9429,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>44719</v>
       </c>
@@ -9439,7 +9455,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>44718</v>
       </c>
@@ -9465,7 +9481,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>44715</v>
       </c>
@@ -9491,7 +9507,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>44713</v>
       </c>
@@ -9517,7 +9533,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>44712</v>
       </c>
@@ -9543,7 +9559,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>44712</v>
       </c>
@@ -9569,7 +9585,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>44708</v>
       </c>
@@ -9595,7 +9611,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>44706</v>
       </c>
@@ -9621,7 +9637,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>44701</v>
       </c>
@@ -9647,7 +9663,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>44701</v>
       </c>
@@ -9673,7 +9689,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>44701</v>
       </c>
@@ -9699,7 +9715,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>44700</v>
       </c>
@@ -9725,7 +9741,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>44700</v>
       </c>
@@ -9751,7 +9767,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>44700</v>
       </c>
@@ -9777,7 +9793,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>44700</v>
       </c>
@@ -9803,7 +9819,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>44700</v>
       </c>
@@ -9829,7 +9845,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>44700</v>
       </c>
@@ -9855,7 +9871,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>44699</v>
       </c>
@@ -9881,7 +9897,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>44699</v>
       </c>
@@ -9907,7 +9923,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>44699</v>
       </c>
@@ -9933,7 +9949,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>44699</v>
       </c>
@@ -9959,7 +9975,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>44698</v>
       </c>
@@ -9985,7 +10001,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>44698</v>
       </c>
@@ -10011,7 +10027,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>44698</v>
       </c>
@@ -10037,7 +10053,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>44698</v>
       </c>
@@ -10063,7 +10079,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>44698</v>
       </c>
@@ -10089,7 +10105,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>44697</v>
       </c>
@@ -10115,7 +10131,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>44697</v>
       </c>
@@ -10141,7 +10157,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>44697</v>
       </c>
@@ -10167,7 +10183,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>44696</v>
       </c>
@@ -10193,7 +10209,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>44695</v>
       </c>
@@ -10219,7 +10235,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>44695</v>
       </c>
@@ -10245,7 +10261,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>44694</v>
       </c>
@@ -10271,7 +10287,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>44693</v>
       </c>
@@ -10297,7 +10313,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>44693</v>
       </c>
@@ -10323,7 +10339,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>44693</v>
       </c>
@@ -10349,7 +10365,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>44692</v>
       </c>
@@ -10375,7 +10391,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>44692</v>
       </c>
@@ -10401,7 +10417,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>44692</v>
       </c>
@@ -10427,7 +10443,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>44692</v>
       </c>
@@ -10453,7 +10469,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>44691</v>
       </c>
@@ -10479,7 +10495,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>44691</v>
       </c>
@@ -10505,7 +10521,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>44691</v>
       </c>
@@ -10531,7 +10547,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>44691</v>
       </c>
@@ -10557,7 +10573,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>44690</v>
       </c>
@@ -10583,7 +10599,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>44690</v>
       </c>
@@ -10609,7 +10625,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>44690</v>
       </c>
@@ -10635,7 +10651,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>44687</v>
       </c>
@@ -10661,7 +10677,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>44686</v>
       </c>
@@ -10687,7 +10703,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>44685</v>
       </c>
@@ -10713,7 +10729,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>44685</v>
       </c>
@@ -10739,7 +10755,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>44685</v>
       </c>
@@ -10765,7 +10781,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>44684</v>
       </c>
@@ -10791,7 +10807,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>44684</v>
       </c>
@@ -10817,7 +10833,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>44684</v>
       </c>
@@ -10843,7 +10859,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>44683</v>
       </c>
@@ -10869,7 +10885,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>44679</v>
       </c>
@@ -10895,7 +10911,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>44679</v>
       </c>
@@ -10921,7 +10937,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>44679</v>
       </c>
@@ -10947,7 +10963,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>44678</v>
       </c>
@@ -10973,7 +10989,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>44678</v>
       </c>
@@ -10999,7 +11015,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>44678</v>
       </c>
@@ -11025,7 +11041,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>44677</v>
       </c>
@@ -11051,7 +11067,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>44676</v>
       </c>
@@ -11077,7 +11093,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>44672</v>
       </c>
@@ -11103,7 +11119,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>44672</v>
       </c>
@@ -11129,7 +11145,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>44672</v>
       </c>
@@ -11155,7 +11171,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>44672</v>
       </c>
@@ -11181,7 +11197,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>44671</v>
       </c>
@@ -11207,7 +11223,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>44670</v>
       </c>
@@ -11233,7 +11249,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>44670</v>
       </c>
@@ -11259,7 +11275,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>44670</v>
       </c>
@@ -11285,7 +11301,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>44670</v>
       </c>
@@ -11311,7 +11327,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>44669</v>
       </c>
@@ -11337,7 +11353,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>44665</v>
       </c>
@@ -11363,7 +11379,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>44665</v>
       </c>
@@ -11389,7 +11405,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>44664</v>
       </c>
@@ -11415,7 +11431,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>44660</v>
       </c>
@@ -11441,7 +11457,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>44660</v>
       </c>
@@ -11467,7 +11483,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>44659</v>
       </c>
@@ -11493,7 +11509,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>44659</v>
       </c>
@@ -11519,7 +11535,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>44659</v>
       </c>
@@ -11545,7 +11561,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>44658</v>
       </c>
@@ -11571,7 +11587,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>44658</v>
       </c>
@@ -11597,7 +11613,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>44658</v>
       </c>
@@ -11623,7 +11639,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>44658</v>
       </c>
@@ -11649,7 +11665,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>44658</v>
       </c>
@@ -11675,7 +11691,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>44656</v>
       </c>
@@ -11701,7 +11717,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>44655</v>
       </c>
@@ -11727,7 +11743,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>44655</v>
       </c>
@@ -11753,7 +11769,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>44655</v>
       </c>
@@ -11779,7 +11795,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>44655</v>
       </c>
@@ -11805,7 +11821,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>44652</v>
       </c>
@@ -11831,7 +11847,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>44652</v>
       </c>
@@ -11857,7 +11873,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>44652</v>
       </c>
@@ -11883,7 +11899,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>44651</v>
       </c>
@@ -11909,7 +11925,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>44650</v>
       </c>
@@ -11935,7 +11951,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>44650</v>
       </c>
@@ -11961,7 +11977,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>44648</v>
       </c>
@@ -11987,7 +12003,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>44648</v>
       </c>
@@ -12013,7 +12029,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>44645</v>
       </c>
@@ -12039,7 +12055,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>44645</v>
       </c>
@@ -12065,7 +12081,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>44645</v>
       </c>
@@ -12091,7 +12107,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>44645</v>
       </c>
@@ -12117,7 +12133,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>44643</v>
       </c>
@@ -12143,7 +12159,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>44643</v>
       </c>
@@ -12169,7 +12185,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>44642</v>
       </c>
@@ -12195,7 +12211,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>44641</v>
       </c>
@@ -12221,7 +12237,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>44641</v>
       </c>
@@ -12247,7 +12263,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>44638</v>
       </c>
@@ -12273,7 +12289,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>44638</v>
       </c>
@@ -12299,7 +12315,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>44637</v>
       </c>
@@ -12325,7 +12341,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>44637</v>
       </c>
@@ -12351,7 +12367,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>44637</v>
       </c>
@@ -12377,7 +12393,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>44637</v>
       </c>
@@ -12403,7 +12419,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>44635</v>
       </c>
@@ -12429,7 +12445,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>44635</v>
       </c>
@@ -12455,7 +12471,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>44635</v>
       </c>
@@ -12481,7 +12497,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>44635</v>
       </c>
@@ -12507,7 +12523,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>44634</v>
       </c>
@@ -12533,7 +12549,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>44631</v>
       </c>
@@ -12559,7 +12575,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>44631</v>
       </c>
@@ -12585,7 +12601,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>44631</v>
       </c>
@@ -12611,7 +12627,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>44630</v>
       </c>
@@ -12637,7 +12653,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>44630</v>
       </c>
@@ -12663,7 +12679,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>44629</v>
       </c>
@@ -12689,7 +12705,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>44627</v>
       </c>
@@ -12715,7 +12731,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>44624</v>
       </c>
@@ -12741,7 +12757,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>44623</v>
       </c>
@@ -12767,7 +12783,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>44622</v>
       </c>
@@ -12793,7 +12809,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>44622</v>
       </c>
@@ -12819,7 +12835,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>44622</v>
       </c>
@@ -12845,7 +12861,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>44621</v>
       </c>
@@ -12871,7 +12887,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>44621</v>
       </c>
@@ -12897,7 +12913,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>44621</v>
       </c>
@@ -12923,7 +12939,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>44621</v>
       </c>
@@ -12949,7 +12965,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>44620</v>
       </c>
@@ -12975,7 +12991,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>44617</v>
       </c>
@@ -13001,7 +13017,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>44616</v>
       </c>
@@ -13027,7 +13043,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>44615</v>
       </c>
@@ -13053,7 +13069,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>44615</v>
       </c>
@@ -13079,7 +13095,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>44615</v>
       </c>
@@ -13105,7 +13121,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>44614</v>
       </c>
@@ -13131,7 +13147,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>44614</v>
       </c>
@@ -13157,7 +13173,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>44614</v>
       </c>
@@ -13183,7 +13199,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>44614</v>
       </c>
@@ -13209,7 +13225,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>44614</v>
       </c>
@@ -13235,7 +13251,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>44614</v>
       </c>
@@ -13261,7 +13277,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>44614</v>
       </c>
@@ -13287,7 +13303,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>44610</v>
       </c>
@@ -13313,7 +13329,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>44610</v>
       </c>
@@ -13339,7 +13355,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>44610</v>
       </c>
@@ -13391,7 +13407,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>44609</v>
       </c>
@@ -13417,7 +13433,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>44609</v>
       </c>
@@ -13443,7 +13459,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>44609</v>
       </c>
@@ -13469,7 +13485,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>44609</v>
       </c>
@@ -13495,7 +13511,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>44609</v>
       </c>
@@ -13521,7 +13537,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>44609</v>
       </c>
@@ -13547,7 +13563,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>44609</v>
       </c>
@@ -13573,7 +13589,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>44608</v>
       </c>
@@ -13599,7 +13615,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>44607</v>
       </c>
@@ -13625,7 +13641,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>44607</v>
       </c>
@@ -13651,7 +13667,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>44607</v>
       </c>
@@ -13677,7 +13693,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>44606</v>
       </c>
@@ -13703,7 +13719,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>44603</v>
       </c>
@@ -13729,7 +13745,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>44603</v>
       </c>
@@ -13755,7 +13771,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>44603</v>
       </c>
@@ -13781,7 +13797,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>44603</v>
       </c>
@@ -13807,7 +13823,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>44603</v>
       </c>
@@ -13833,7 +13849,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>44602</v>
       </c>
@@ -13859,7 +13875,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>44602</v>
       </c>
@@ -13885,7 +13901,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>44601</v>
       </c>
@@ -13911,7 +13927,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>44601</v>
       </c>
@@ -13937,7 +13953,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>44600</v>
       </c>
@@ -13963,7 +13979,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>44600</v>
       </c>
@@ -13989,7 +14005,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>44596</v>
       </c>
@@ -14015,7 +14031,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>44595</v>
       </c>
@@ -14041,7 +14057,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>44594</v>
       </c>
@@ -14067,7 +14083,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>44594</v>
       </c>
@@ -14093,7 +14109,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>44594</v>
       </c>
@@ -14119,7 +14135,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>44594</v>
       </c>
@@ -14145,7 +14161,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>44594</v>
       </c>
@@ -14171,7 +14187,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>44592</v>
       </c>
@@ -14197,7 +14213,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>44589</v>
       </c>
@@ -14223,7 +14239,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>44589</v>
       </c>
@@ -14249,7 +14265,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>44589</v>
       </c>
@@ -14275,7 +14291,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>44588</v>
       </c>
@@ -14301,7 +14317,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>44588</v>
       </c>
@@ -14327,7 +14343,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>44587</v>
       </c>
@@ -14353,7 +14369,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>44587</v>
       </c>
@@ -14379,7 +14395,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>44587</v>
       </c>
@@ -14405,7 +14421,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>44586</v>
       </c>
@@ -14431,7 +14447,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>44586</v>
       </c>
@@ -14457,7 +14473,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>44586</v>
       </c>
@@ -14483,7 +14499,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>44582</v>
       </c>
@@ -14509,7 +14525,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>44582</v>
       </c>
@@ -14535,7 +14551,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>44582</v>
       </c>
@@ -14561,7 +14577,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>44581</v>
       </c>
@@ -14587,7 +14603,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>44580</v>
       </c>
@@ -14613,7 +14629,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>44580</v>
       </c>
@@ -14639,7 +14655,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>44579</v>
       </c>
@@ -14665,7 +14681,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>44578</v>
       </c>
@@ -14691,7 +14707,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>44578</v>
       </c>
@@ -14717,7 +14733,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>44577</v>
       </c>
@@ -14743,7 +14759,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>44577</v>
       </c>
@@ -14769,7 +14785,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>44577</v>
       </c>
@@ -14795,7 +14811,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>44577</v>
       </c>
@@ -14821,7 +14837,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>44575</v>
       </c>
@@ -14847,7 +14863,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>44575</v>
       </c>
@@ -14873,7 +14889,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>44575</v>
       </c>
@@ -14899,7 +14915,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>44575</v>
       </c>
@@ -14925,7 +14941,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>44574</v>
       </c>
@@ -14951,7 +14967,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>44573</v>
       </c>
@@ -14977,7 +14993,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>44573</v>
       </c>
@@ -15003,7 +15019,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>44572</v>
       </c>
@@ -15029,7 +15045,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>44571</v>
       </c>
@@ -15055,7 +15071,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>44568</v>
       </c>
@@ -15081,7 +15097,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>44567</v>
       </c>
@@ -15107,7 +15123,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>44565</v>
       </c>
@@ -15133,7 +15149,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>44562</v>
       </c>
@@ -15159,7 +15175,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>44561</v>
       </c>
@@ -15185,7 +15201,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>44560</v>
       </c>
@@ -15211,7 +15227,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>44560</v>
       </c>
@@ -15237,7 +15253,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>44558</v>
       </c>
@@ -15263,7 +15279,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>44558</v>
       </c>
@@ -15289,7 +15305,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>44558</v>
       </c>
@@ -15315,7 +15331,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>44551</v>
       </c>
@@ -15341,7 +15357,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>44550</v>
       </c>
@@ -15367,7 +15383,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>44550</v>
       </c>
@@ -15393,7 +15409,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>44550</v>
       </c>
@@ -15419,7 +15435,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>44549</v>
       </c>
@@ -15445,7 +15461,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>44548</v>
       </c>
@@ -15471,7 +15487,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>44547</v>
       </c>
@@ -15497,7 +15513,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>44547</v>
       </c>
@@ -15523,7 +15539,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>44547</v>
       </c>
@@ -15549,7 +15565,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>44546</v>
       </c>
@@ -15575,7 +15591,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>44546</v>
       </c>
@@ -15601,7 +15617,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>44546</v>
       </c>
@@ -15627,7 +15643,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>44546</v>
       </c>
@@ -15653,7 +15669,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>44545</v>
       </c>
@@ -15679,7 +15695,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>44545</v>
       </c>
@@ -15705,7 +15721,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>44545</v>
       </c>
@@ -15731,7 +15747,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>44545</v>
       </c>
@@ -15757,7 +15773,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>44544</v>
       </c>
@@ -15783,7 +15799,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>44544</v>
       </c>
@@ -15809,7 +15825,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>44544</v>
       </c>
@@ -15835,7 +15851,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>44544</v>
       </c>
@@ -15861,7 +15877,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>44544</v>
       </c>
@@ -15887,7 +15903,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>44540</v>
       </c>
@@ -15913,7 +15929,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>44540</v>
       </c>
@@ -15939,7 +15955,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>44539</v>
       </c>
@@ -15965,7 +15981,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>44538</v>
       </c>
@@ -15991,7 +16007,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>44538</v>
       </c>
@@ -16017,7 +16033,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>44538</v>
       </c>
@@ -16043,7 +16059,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>44537</v>
       </c>
@@ -16069,7 +16085,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>44537</v>
       </c>
@@ -16095,7 +16111,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>44537</v>
       </c>
@@ -16121,7 +16137,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>44537</v>
       </c>
@@ -16147,7 +16163,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>44537</v>
       </c>
@@ -16173,7 +16189,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>44533</v>
       </c>
@@ -16199,7 +16215,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>44532</v>
       </c>
@@ -16225,7 +16241,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>44531</v>
       </c>
@@ -16251,7 +16267,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>44529</v>
       </c>
@@ -16277,7 +16293,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>44529</v>
       </c>
@@ -16303,7 +16319,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>44526</v>
       </c>
@@ -16329,7 +16345,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>44523</v>
       </c>
@@ -16355,7 +16371,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>44523</v>
       </c>
@@ -16381,7 +16397,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>44523</v>
       </c>
@@ -16407,7 +16423,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>44523</v>
       </c>
@@ -16433,7 +16449,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>44523</v>
       </c>
@@ -16459,7 +16475,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>44523</v>
       </c>
@@ -16485,7 +16501,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>44523</v>
       </c>
@@ -16511,7 +16527,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>44522</v>
       </c>
@@ -16537,7 +16553,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>44522</v>
       </c>
@@ -16563,7 +16579,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>44522</v>
       </c>
@@ -16589,7 +16605,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>44522</v>
       </c>
@@ -16615,7 +16631,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>44522</v>
       </c>
@@ -16641,7 +16657,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>44519</v>
       </c>
@@ -16667,7 +16683,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>44519</v>
       </c>
@@ -16693,7 +16709,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>44519</v>
       </c>
@@ -16719,7 +16735,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>44519</v>
       </c>
@@ -16745,7 +16761,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>44518</v>
       </c>
@@ -16771,7 +16787,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>44518</v>
       </c>
@@ -16797,7 +16813,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>44517</v>
       </c>
@@ -16823,7 +16839,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>44516</v>
       </c>
@@ -16849,7 +16865,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>44516</v>
       </c>
@@ -16875,7 +16891,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>44516</v>
       </c>
@@ -16901,7 +16917,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>44515</v>
       </c>
@@ -16927,7 +16943,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>44515</v>
       </c>
@@ -16953,7 +16969,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>44512</v>
       </c>
@@ -16979,7 +16995,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>44512</v>
       </c>
@@ -17005,7 +17021,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>44510</v>
       </c>
@@ -17031,7 +17047,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>44510</v>
       </c>
@@ -17057,7 +17073,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>44509</v>
       </c>
@@ -17083,7 +17099,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>44508</v>
       </c>
@@ -17109,7 +17125,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>44508</v>
       </c>
@@ -17135,7 +17151,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>44505</v>
       </c>
@@ -17161,7 +17177,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>44505</v>
       </c>
@@ -17187,7 +17203,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>44503</v>
       </c>
@@ -17213,7 +17229,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>44503</v>
       </c>
@@ -17239,7 +17255,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>44502</v>
       </c>
@@ -17265,7 +17281,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>44502</v>
       </c>
@@ -17291,7 +17307,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>44501</v>
       </c>
@@ -17317,7 +17333,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>44498</v>
       </c>
@@ -17343,7 +17359,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>44498</v>
       </c>
@@ -17369,7 +17385,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>44498</v>
       </c>
@@ -17395,7 +17411,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>44497</v>
       </c>
@@ -17421,7 +17437,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>44497</v>
       </c>
@@ -17447,7 +17463,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>44497</v>
       </c>
@@ -17473,7 +17489,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>44497</v>
       </c>
@@ -17499,7 +17515,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>44496</v>
       </c>
@@ -17525,7 +17541,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>44496</v>
       </c>
@@ -17551,7 +17567,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>44495</v>
       </c>
@@ -17577,7 +17593,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>44495</v>
       </c>
@@ -17603,7 +17619,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>44495</v>
       </c>
@@ -17629,7 +17645,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>44495</v>
       </c>
@@ -17655,7 +17671,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>44494</v>
       </c>
@@ -17681,7 +17697,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>44494</v>
       </c>
@@ -17707,7 +17723,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>44494</v>
       </c>
@@ -17733,7 +17749,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>44494</v>
       </c>
@@ -17759,7 +17775,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>44491</v>
       </c>
@@ -17785,7 +17801,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>44490</v>
       </c>
@@ -17811,7 +17827,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>44490</v>
       </c>
@@ -17837,7 +17853,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>44490</v>
       </c>
@@ -17863,7 +17879,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>44489</v>
       </c>
@@ -17889,7 +17905,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>44489</v>
       </c>
@@ -17915,7 +17931,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>44489</v>
       </c>
@@ -17941,7 +17957,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>44489</v>
       </c>
@@ -17967,7 +17983,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>44488</v>
       </c>
@@ -17993,7 +18009,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>44488</v>
       </c>
@@ -18019,7 +18035,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>44488</v>
       </c>
@@ -18045,7 +18061,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>44488</v>
       </c>
@@ -18071,7 +18087,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>44487</v>
       </c>
@@ -18097,7 +18113,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>44484</v>
       </c>
@@ -18123,7 +18139,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>44484</v>
       </c>
@@ -18149,7 +18165,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>44484</v>
       </c>
@@ -18175,7 +18191,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>44484</v>
       </c>
@@ -18201,7 +18217,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>44483</v>
       </c>
@@ -18227,7 +18243,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>44481</v>
       </c>
@@ -18253,7 +18269,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>44481</v>
       </c>
@@ -18279,7 +18295,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>44477</v>
       </c>
@@ -18305,7 +18321,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>44476</v>
       </c>
@@ -18331,7 +18347,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>44476</v>
       </c>
@@ -18357,7 +18373,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>44474</v>
       </c>
@@ -18383,7 +18399,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>44474</v>
       </c>
@@ -18409,7 +18425,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>44473</v>
       </c>
@@ -18435,7 +18451,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>44473</v>
       </c>
@@ -18461,7 +18477,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>44470</v>
       </c>
@@ -18487,7 +18503,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>44470</v>
       </c>
@@ -18513,7 +18529,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>44470</v>
       </c>
@@ -18539,7 +18555,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>44470</v>
       </c>
@@ -18565,7 +18581,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>44470</v>
       </c>
@@ -18591,7 +18607,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>44470</v>
       </c>
@@ -18617,7 +18633,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>44470</v>
       </c>
@@ -18643,7 +18659,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>44470</v>
       </c>
@@ -18669,7 +18685,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>44469</v>
       </c>
@@ -18695,7 +18711,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>44469</v>
       </c>
@@ -18721,7 +18737,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>44469</v>
       </c>
@@ -18747,7 +18763,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>44469</v>
       </c>
@@ -18773,7 +18789,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>44468</v>
       </c>
@@ -18799,7 +18815,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>44468</v>
       </c>
@@ -18825,7 +18841,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>44467</v>
       </c>
@@ -18851,7 +18867,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>44467</v>
       </c>
@@ -18877,7 +18893,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>44467</v>
       </c>
@@ -18903,7 +18919,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>44467</v>
       </c>
@@ -18929,7 +18945,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>44467</v>
       </c>
@@ -18955,7 +18971,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>44466</v>
       </c>
@@ -18981,7 +18997,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>44466</v>
       </c>
@@ -19007,7 +19023,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>44466</v>
       </c>
@@ -19033,7 +19049,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>44466</v>
       </c>
@@ -19059,7 +19075,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>44463</v>
       </c>
@@ -19085,7 +19101,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>44463</v>
       </c>
@@ -19111,7 +19127,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>44462</v>
       </c>
@@ -19137,7 +19153,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>44462</v>
       </c>
@@ -19163,7 +19179,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>44461</v>
       </c>
@@ -19189,7 +19205,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>44460</v>
       </c>
@@ -19215,7 +19231,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>44460</v>
       </c>
@@ -19241,7 +19257,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>44459</v>
       </c>
@@ -19267,7 +19283,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>44459</v>
       </c>
@@ -19293,7 +19309,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>44458</v>
       </c>
@@ -19319,7 +19335,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>44457</v>
       </c>
@@ -19345,7 +19361,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>44456</v>
       </c>
@@ -19371,7 +19387,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>44456</v>
       </c>
@@ -19397,7 +19413,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>44456</v>
       </c>
@@ -19423,7 +19439,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>44456</v>
       </c>
@@ -19449,7 +19465,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>44455</v>
       </c>
@@ -19475,7 +19491,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>44455</v>
       </c>
@@ -19501,7 +19517,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>44455</v>
       </c>
@@ -19527,7 +19543,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>44454</v>
       </c>
@@ -19553,7 +19569,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>44454</v>
       </c>
@@ -19579,7 +19595,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>44453</v>
       </c>
@@ -19605,7 +19621,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>44453</v>
       </c>
@@ -19631,7 +19647,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>44453</v>
       </c>
@@ -19657,7 +19673,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>44453</v>
       </c>
@@ -19683,7 +19699,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>44452</v>
       </c>
@@ -19709,7 +19725,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>44451</v>
       </c>
@@ -19735,7 +19751,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>44450</v>
       </c>
@@ -19761,7 +19777,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>44449</v>
       </c>
@@ -19787,7 +19803,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>44449</v>
       </c>
@@ -19813,7 +19829,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>44449</v>
       </c>
@@ -19839,7 +19855,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>44448</v>
       </c>
@@ -19865,7 +19881,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>44448</v>
       </c>
@@ -19891,7 +19907,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>44447</v>
       </c>
@@ -19917,7 +19933,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>44447</v>
       </c>
@@ -19943,7 +19959,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>44446</v>
       </c>
@@ -19969,7 +19985,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>44446</v>
       </c>
@@ -19995,7 +20011,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>44446</v>
       </c>
@@ -20021,7 +20037,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>44445</v>
       </c>
@@ -20047,7 +20063,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>44444</v>
       </c>
@@ -20073,7 +20089,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>44443</v>
       </c>
@@ -20099,7 +20115,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>44442</v>
       </c>
@@ -20125,7 +20141,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>44442</v>
       </c>
@@ -20151,7 +20167,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>44442</v>
       </c>
@@ -20177,7 +20193,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>44441</v>
       </c>
@@ -20203,7 +20219,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>44440</v>
       </c>
